--- a/処理フロー.xlsx
+++ b/処理フロー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="基本用語" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>コミット</t>
     <phoneticPr fontId="1"/>
@@ -364,6 +364,10 @@
     <t>チェリーピック</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>リベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -481,15 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -499,6 +494,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6003,10 +6007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AE30"/>
+  <dimension ref="B2:AE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6018,16 +6022,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="1"/>
@@ -6061,13 +6065,13 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -6099,13 +6103,13 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -6137,11 +6141,11 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -6173,11 +6177,11 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -6209,13 +6213,13 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -6247,11 +6251,11 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -6283,11 +6287,11 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -6317,9 +6321,9 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -6351,13 +6355,13 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -6389,13 +6393,13 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -6427,9 +6431,9 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -6461,13 +6465,13 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -6499,11 +6503,11 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -6535,11 +6539,11 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -6571,11 +6575,11 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -6607,11 +6611,11 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -6643,11 +6647,11 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -6673,17 +6677,15 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" spans="2:31" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -6709,17 +6711,17 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
     </row>
-    <row r="21" spans="2:31" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:31" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11" t="s">
-        <v>48</v>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -6745,17 +6747,17 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="2:31" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:31" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11" t="s">
-        <v>50</v>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
+        <v>48</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -6781,19 +6783,17 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:31" ht="81" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="9" t="s">
-        <v>28</v>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="s">
+        <v>50</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -6819,17 +6819,19 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="2:31" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11" t="s">
-        <v>31</v>
+      <c r="E24" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="F24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -6855,17 +6857,17 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:31" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11" t="s">
-        <v>33</v>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -6891,19 +6893,17 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="2:31" ht="54" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="9" t="s">
-        <v>52</v>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>33</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -6929,15 +6929,19 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:31" ht="54" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
+      <c r="E27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -6965,13 +6969,13 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -6997,17 +7001,15 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="2:31" ht="54" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>20</v>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>10</v>
       </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="10"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -7033,17 +7035,17 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="2:31" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:31" ht="54" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11" t="s">
-        <v>23</v>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -7069,6 +7071,42 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
+    <row r="31" spans="2:31" ht="27" x14ac:dyDescent="0.15">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
@@ -7083,7 +7121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR77" sqref="AR77"/>
     </sheetView>
   </sheetViews>

--- a/処理フロー.xlsx
+++ b/処理フロー.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>コミット</t>
     <phoneticPr fontId="1"/>
@@ -366,6 +366,10 @@
   </si>
   <si>
     <t>リベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>???</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6009,8 +6013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6684,7 +6688,9 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>

--- a/処理フロー.xlsx
+++ b/処理フロー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本用語" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>コミット</t>
     <phoneticPr fontId="1"/>
@@ -304,13 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>時間軸</t>
     <rPh sb="0" eb="3">
       <t>ジカンジク</t>
@@ -370,6 +363,20 @@
   </si>
   <si>
     <t>???</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般開発者</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイハツシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -529,16 +536,94 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4740089" y="123265"/>
+          <a:ext cx="2633383" cy="1176618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>85727</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -548,7 +633,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4048125" y="7334250"/>
-          <a:ext cx="38102" cy="7248525"/>
+          <a:ext cx="38102" cy="7429500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -579,15 +664,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -597,7 +682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="409575"/>
+          <a:off x="3629025" y="409575"/>
           <a:ext cx="914400" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -646,13 +731,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -688,15 +773,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -708,7 +793,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="1171575"/>
+          <a:off x="4086225" y="1171575"/>
           <a:ext cx="0" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -736,13 +821,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -798,15 +883,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -862,15 +947,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -926,15 +1011,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -992,13 +1077,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1036,15 +1121,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1082,15 +1167,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1128,15 +1213,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1176,13 +1261,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1192,8 +1277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="428624" y="2886075"/>
-          <a:ext cx="371475" cy="466725"/>
+          <a:off x="431986" y="3168463"/>
+          <a:ext cx="373156" cy="456640"/>
           <a:chOff x="342900" y="2638425"/>
           <a:chExt cx="247650" cy="371475"/>
         </a:xfrm>
@@ -1283,13 +1368,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1340,13 +1425,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>66677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1404,15 +1489,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1422,8 +1507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3067049" y="2895600"/>
-          <a:ext cx="371475" cy="466725"/>
+          <a:off x="9143439" y="3177988"/>
+          <a:ext cx="374836" cy="456640"/>
           <a:chOff x="342900" y="2638425"/>
           <a:chExt cx="247650" cy="371475"/>
         </a:xfrm>
@@ -1511,15 +1596,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1569,15 +1654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1586,8 +1671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="4467225"/>
-          <a:ext cx="209550" cy="4943475"/>
+          <a:off x="133351" y="4884084"/>
+          <a:ext cx="202826" cy="8876740"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1622,16 +1707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1640,8 +1725,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543177" y="2171700"/>
-          <a:ext cx="0" cy="10096500"/>
+          <a:off x="3114677" y="2171700"/>
+          <a:ext cx="0" cy="12611100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1672,15 +1757,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1690,7 +1775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="4505325"/>
+          <a:off x="4038600" y="4505325"/>
           <a:ext cx="914400" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -1737,15 +1822,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1758,8 +1843,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="4886325"/>
-          <a:ext cx="6457950" cy="923925"/>
+          <a:off x="4953000" y="4886325"/>
+          <a:ext cx="6858000" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1790,15 +1875,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1854,15 +1939,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1918,15 +2003,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1982,15 +2067,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2003,8 +2088,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="4886325"/>
-          <a:ext cx="4333875" cy="904875"/>
+          <a:off x="4953000" y="4886325"/>
+          <a:ext cx="4733925" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2035,15 +2120,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2056,8 +2141,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="4886325"/>
-          <a:ext cx="2152650" cy="942975"/>
+          <a:off x="4953000" y="4886325"/>
+          <a:ext cx="2552700" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2088,15 +2173,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2155,15 +2240,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2222,15 +2307,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2289,15 +2374,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2356,15 +2441,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2423,15 +2508,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2473,15 +2558,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2530,15 +2615,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2552,7 +2637,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4076700" y="8143875"/>
-          <a:ext cx="9525" cy="1095375"/>
+          <a:ext cx="9525" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2580,15 +2665,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2598,7 +2683,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="9239250"/>
+          <a:off x="3943350" y="10267950"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2637,16 +2722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2656,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5105402" y="7334250"/>
-          <a:ext cx="0" cy="7200900"/>
+          <a:ext cx="0" cy="7439025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2687,15 +2772,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2706,7 +2791,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6124577" y="7334250"/>
-          <a:ext cx="0" cy="7258050"/>
+          <a:ext cx="0" cy="7429500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2737,16 +2822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2756,7 +2841,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7105652" y="7334250"/>
-          <a:ext cx="0" cy="7239000"/>
+          <a:ext cx="0" cy="7362825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2787,16 +2872,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2806,7 +2891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8115302" y="7334250"/>
-          <a:ext cx="0" cy="7219950"/>
+          <a:ext cx="0" cy="7429500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2837,16 +2922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>180018</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>48063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>957</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>75762</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66237</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2859,7 +2944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4180518" y="8106213"/>
-          <a:ext cx="821064" cy="713499"/>
+          <a:ext cx="821064" cy="1561224"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2887,16 +2972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2905,7 +2990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4962525" y="8782050"/>
+          <a:off x="4962525" y="9629775"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2944,15 +3029,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>86163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>957</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2965,8 +3050,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4210050" y="9001563"/>
-          <a:ext cx="791532" cy="366275"/>
+          <a:off x="4210050" y="9849288"/>
+          <a:ext cx="791532" cy="547250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2994,16 +3079,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3014,9 +3099,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4076700" y="9496425"/>
-          <a:ext cx="0" cy="1552575"/>
+        <a:xfrm flipH="1">
+          <a:off x="4057650" y="10525125"/>
+          <a:ext cx="19050" cy="2352675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3044,16 +3129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3062,7 +3147,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="11049000"/>
+          <a:off x="3924300" y="12877800"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3101,16 +3186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3120,7 +3205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9124952" y="7334250"/>
-          <a:ext cx="0" cy="7258050"/>
+          <a:ext cx="0" cy="7391400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3151,15 +3236,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3218,15 +3303,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3268,15 +3353,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3323,56 +3408,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>179759</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>113087</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="図 78"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9458325" y="4810125"/>
-          <a:ext cx="9723809" cy="9704762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3385,7 +3432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7105650" y="8439150"/>
-          <a:ext cx="0" cy="419100"/>
+          <a:ext cx="0" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3413,16 +3460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3431,7 +3478,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="8858250"/>
+          <a:off x="6972300" y="8791575"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3470,15 +3517,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>29532</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>37662</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3491,8 +3538,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="8986838"/>
-          <a:ext cx="1791657" cy="309124"/>
+          <a:off x="7239000" y="8920163"/>
+          <a:ext cx="1791657" cy="375799"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3520,15 +3567,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3577,15 +3624,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>199068</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>162363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>20007</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>75762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3598,8 +3645,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7199943" y="9077763"/>
-          <a:ext cx="821064" cy="256299"/>
+          <a:off x="7199943" y="9011088"/>
+          <a:ext cx="821064" cy="322974"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3627,15 +3674,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3684,29 +3731,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="135" name="直線矢印コネクタ 134"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="125" idx="4"/>
+          <a:stCxn id="104" idx="4"/>
           <a:endCxn id="136" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="9115425"/>
-          <a:ext cx="0" cy="542925"/>
+          <a:off x="7105650" y="9591675"/>
+          <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3734,16 +3781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3752,7 +3799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="9658350"/>
+          <a:off x="6972300" y="9953625"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3791,15 +3838,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3812,8 +3859,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="9915525"/>
-          <a:ext cx="0" cy="590550"/>
+          <a:off x="7105650" y="10210800"/>
+          <a:ext cx="0" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3841,15 +3888,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3898,15 +3945,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3948,15 +3995,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4005,15 +4052,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4055,15 +4102,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4112,15 +4159,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4162,16 +4209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4184,7 +4231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7105650" y="10763250"/>
-          <a:ext cx="0" cy="438150"/>
+          <a:ext cx="0" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4212,16 +4259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4230,7 +4277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="11201400"/>
+          <a:off x="6972300" y="11401425"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4269,16 +4316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4290,8 +4337,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="11458575"/>
-          <a:ext cx="0" cy="542925"/>
+          <a:off x="7105650" y="11658600"/>
+          <a:ext cx="0" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4319,16 +4366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4337,7 +4384,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="12001500"/>
+          <a:off x="6972300" y="12420600"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4376,16 +4423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4397,8 +4444,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="12258675"/>
-          <a:ext cx="0" cy="590550"/>
+          <a:off x="7105650" y="12677775"/>
+          <a:ext cx="0" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4426,16 +4473,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4444,7 +4491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="12849225"/>
+          <a:off x="6972300" y="13068300"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4483,29 +4530,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>29532</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>104337</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="150" idx="6"/>
-          <a:endCxn id="169" idx="1"/>
+          <a:endCxn id="169" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="11329988"/>
-          <a:ext cx="791532" cy="261499"/>
+          <a:off x="7239000" y="11530013"/>
+          <a:ext cx="752475" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4533,15 +4580,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4590,15 +4637,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4640,15 +4687,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4697,15 +4744,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4747,15 +4794,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4804,16 +4851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>199068</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>28137</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>75762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4826,7 +4873,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="7199943" y="12682538"/>
-          <a:ext cx="791532" cy="204349"/>
+          <a:ext cx="791532" cy="423424"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4854,28 +4901,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>8568</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>124263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>29532</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>37662</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="177" name="直線矢印コネクタ 176"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="178" idx="1"/>
+          <a:stCxn id="128" idx="4"/>
+          <a:endCxn id="178" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8209593" y="9896913"/>
-          <a:ext cx="821064" cy="256299"/>
+          <a:off x="9124950" y="9515475"/>
+          <a:ext cx="0" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4903,15 +4951,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4960,29 +5008,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="直線矢印コネクタ 178"/>
+        <xdr:cNvPr id="181" name="直線矢印コネクタ 180"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="178" idx="4"/>
-          <a:endCxn id="180" idx="0"/>
+          <a:endCxn id="182" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9124950" y="10372725"/>
-          <a:ext cx="0" cy="247650"/>
+          <a:ext cx="0" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5010,25 +5058,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="円/楕円 179"/>
+        <xdr:cNvPr id="182" name="円/楕円 181"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="10620375"/>
+          <a:off x="8991600" y="12620625"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5067,29 +5115,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="181" name="直線矢印コネクタ 180"/>
+        <xdr:cNvPr id="183" name="直線矢印コネクタ 182"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="180" idx="4"/>
-          <a:endCxn id="182" idx="0"/>
+          <a:stCxn id="182" idx="2"/>
+          <a:endCxn id="154" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9124950" y="10877550"/>
-          <a:ext cx="0" cy="238125"/>
+        <a:xfrm flipH="1">
+          <a:off x="7239000" y="12749213"/>
+          <a:ext cx="1752600" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5117,25 +5165,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="4"/>
+          <a:endCxn id="97" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="13325475"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="円/楕円 181"/>
+        <xdr:cNvPr id="97" name="円/楕円 96"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="11115675"/>
+          <a:off x="6981825" y="13706475"/>
           <a:ext cx="266700" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5174,28 +5272,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="183" name="直線矢印コネクタ 182"/>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="182" idx="2"/>
+          <a:stCxn id="93" idx="6"/>
+          <a:endCxn id="136" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8248650" y="11244263"/>
-          <a:ext cx="742950" cy="209550"/>
+        <a:xfrm>
+          <a:off x="5229225" y="9758363"/>
+          <a:ext cx="1743075" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5219,6 +5318,1826 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="125" idx="4"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="9048750"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="円/楕円 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="9334500"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="円/楕円 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="10696575"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="2"/>
+          <a:endCxn id="109" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6257925" y="10634663"/>
+          <a:ext cx="714375" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="4"/>
+          <a:endCxn id="113" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="10953750"/>
+          <a:ext cx="0" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="円/楕円 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="11249025"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="6"/>
+          <a:endCxn id="150" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="11377613"/>
+          <a:ext cx="714375" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="4"/>
+          <a:endCxn id="121" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="11506200"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="円/楕円 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="11772900"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="4"/>
+          <a:endCxn id="129" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="12030075"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="円/楕円 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="12258675"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="6"/>
+          <a:endCxn id="152" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="12387263"/>
+          <a:ext cx="714375" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="2"/>
+          <a:endCxn id="102" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4191000" y="12387263"/>
+          <a:ext cx="1800225" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="円/楕円 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="13363575"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>27618</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28137</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 139"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="137" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6228393" y="13196888"/>
+          <a:ext cx="743907" cy="204349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>27618</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直線矢印コネクタ 144"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="5"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6228393" y="13583088"/>
+          <a:ext cx="753432" cy="251975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="2"/>
+          <a:endCxn id="155" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4191000" y="13492163"/>
+          <a:ext cx="1809750" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="4"/>
+          <a:endCxn id="155" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="13134975"/>
+          <a:ext cx="0" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="円/楕円 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="14020800"/>
+          <a:ext cx="266700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="正方形/長方形 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="7096125"/>
+          <a:ext cx="914400" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31378</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="正方形/長方形 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460378" y="7112932"/>
+          <a:ext cx="921122" cy="212353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>develop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64995</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476936" y="7123018"/>
+          <a:ext cx="921123" cy="206189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hotfix</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40901</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>61632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2461372" y="7121338"/>
+          <a:ext cx="922804" cy="206188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>release</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直線コネクタ 163"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105527" y="2181225"/>
+          <a:ext cx="0" cy="12611100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="7096125"/>
+          <a:ext cx="914400" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>169770</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>42020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>84044</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>86285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6220946" y="7101726"/>
+          <a:ext cx="922804" cy="212353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>develop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="7258050"/>
+          <a:ext cx="914400" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hotfix</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>167528</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>80122</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="7109572"/>
+          <a:ext cx="921123" cy="202827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>release</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="円柱 175"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="5924550"/>
+          <a:ext cx="914400" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>clone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リポジトリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="カギ線コネクタ 183"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1400176" y="5057774"/>
+          <a:ext cx="2638425" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4740088" y="201706"/>
+          <a:ext cx="930088" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>os-gr-sv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（仮）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051177" y="1199028"/>
+          <a:ext cx="1255058" cy="268943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リモートリポジトリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6013,8 +7932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6431,12 +8350,14 @@
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6683,13 +8604,13 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2"/>
@@ -7125,51 +9046,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A21:S33"/>
+  <dimension ref="A23:AW29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR77" sqref="AR77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="S21" t="s">
-        <v>64</v>
+      <c r="AW23" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
         <v>63</v>
       </c>
-      <c r="S22" t="s">
+      <c r="AW24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="S23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F32" t="s">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F33" t="s">
-        <v>67</v>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/処理フロー.xlsx
+++ b/処理フロー.xlsx
@@ -220,11 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GitHubのサービスで、GitHubに登録されているリポジトリを自分のリポジトリとしてコピーできる機能です。
-コピー後は元リポジトリから独立しますが、その変更をフォーク元のリポジトリにプル・リクエストすることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リポジトリはが作業用（non-bare）と更新管理用（bare）に分かれており、作業用ディレクトリをもたないリポジトリをベア・リポジトリと呼びます。
 Gitでは不整合を避けるために作業用ディレクトリをプッシュせず、更新管理用のみのベア・リポジトリに対してプッシュすることが推奨されています。</t>
     <phoneticPr fontId="1"/>
@@ -377,6 +372,11 @@
     <rPh sb="2" eb="5">
       <t>カイハツシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubのサービスで、GitHubに登録されているリポジトリを自分のリポジトリとしてコピーできる機能です。
+コピー後は元リポジトリから独立しますが、その変更をフォーク元のリポジトリにプル・リクエストすることができます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6388,16 +6388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31378</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31379</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>53226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
+      <xdr:rowOff>64431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>97491</xdr:rowOff>
+      <xdr:rowOff>108696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6406,8 +6406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3460378" y="7112932"/>
-          <a:ext cx="921122" cy="212353"/>
+          <a:off x="1645026" y="7460313"/>
+          <a:ext cx="921122" cy="212354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6455,140 +6455,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>64995</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>101413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1476936" y="7123018"/>
-          <a:ext cx="921123" cy="206189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>hotfix</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>40901</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>61632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>99732</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="正方形/長方形 160"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2461372" y="7121338"/>
-          <a:ext cx="922804" cy="206188"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>release</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -6706,16 +6572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>169770</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>124946</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>42020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>84044</xdr:colOff>
+      <xdr:rowOff>53226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>39220</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>86285</xdr:rowOff>
+      <xdr:rowOff>97491</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6724,8 +6590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6220946" y="7101726"/>
-          <a:ext cx="922804" cy="212353"/>
+          <a:off x="5772711" y="7449108"/>
+          <a:ext cx="922803" cy="212354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6765,140 +6631,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>develop</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4181475" y="7258050"/>
-          <a:ext cx="914400" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>hotfix</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>167528</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>80122</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>84605</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="正方形/長方形 174"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5210175" y="7109572"/>
-          <a:ext cx="921123" cy="202827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>release</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7933,7 +7665,7 @@
   <dimension ref="B2:AE31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7955,7 +7687,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7989,7 +7721,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>41</v>
@@ -8027,7 +7759,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>42</v>
@@ -8137,7 +7869,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
@@ -8279,7 +8011,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>19</v>
@@ -8317,7 +8049,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>45</v>
@@ -8350,13 +8082,13 @@
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="2"/>
@@ -8391,7 +8123,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>46</v>
@@ -8466,7 +8198,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="2"/>
@@ -8604,13 +8336,13 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2"/>
@@ -8718,7 +8450,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="2"/>
@@ -8858,12 +8590,12 @@
     </row>
     <row r="27" spans="2:31" ht="54" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>38</v>
@@ -8970,7 +8702,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="2"/>
@@ -9048,49 +8780,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A23:AW29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF46" sqref="AF46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="23" spans="1:49" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AW24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AW25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/処理フロー.xlsx
+++ b/処理フロー.xlsx
@@ -536,6 +536,308 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30576</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>32780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101013</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>71555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直線矢印コネクタ 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="190" idx="6"/>
+          <a:endCxn id="191" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1459326" y="17014494"/>
+          <a:ext cx="4356687" cy="38775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163926</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>30057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>120063</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>40940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="2"/>
+          <a:endCxn id="189" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3429640" y="15065950"/>
+          <a:ext cx="4038280" cy="10883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>20377</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>77891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>20377</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直線コネクタ 179"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5939484" y="8038070"/>
+          <a:ext cx="0" cy="9406287"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>50712</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>50712</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直線コネクタ 185"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7602676" y="8067206"/>
+          <a:ext cx="0" cy="9349937"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12613</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>136162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12613</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直線コネクタ 186"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3278327" y="8096341"/>
+          <a:ext cx="0" cy="9348016"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75366</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75366</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直線コネクタ 187"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1300009" y="8058241"/>
+          <a:ext cx="0" cy="9440545"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1277,8 +1579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="431986" y="3168463"/>
-          <a:ext cx="373156" cy="456640"/>
+          <a:off x="436788" y="3326946"/>
+          <a:ext cx="375557" cy="483054"/>
           <a:chOff x="342900" y="2638425"/>
           <a:chExt cx="247650" cy="371475"/>
         </a:xfrm>
@@ -1507,8 +1809,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9143439" y="3177988"/>
-          <a:ext cx="374836" cy="456640"/>
+          <a:off x="9251495" y="3336471"/>
+          <a:ext cx="379640" cy="483054"/>
           <a:chOff x="342900" y="2638425"/>
           <a:chExt cx="247650" cy="371475"/>
         </a:xfrm>
@@ -1654,15 +1956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:colOff>106137</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1671,8 +1973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133351" y="4884084"/>
-          <a:ext cx="202826" cy="8876740"/>
+          <a:off x="106137" y="5139417"/>
+          <a:ext cx="261256" cy="13352689"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1715,8 +2017,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1725,15 +2027,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114677" y="2171700"/>
-          <a:ext cx="0" cy="12611100"/>
+          <a:off x="4604659" y="2590800"/>
+          <a:ext cx="0" cy="14921593"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -2516,8 +2818,8 @@
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>122467</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2529,8 +2831,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="7305675"/>
-          <a:ext cx="0" cy="581025"/>
+          <a:off x="10291082" y="8064954"/>
+          <a:ext cx="0" cy="371477"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2560,14 +2862,14 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>122467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>31299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2576,8 +2878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952875" y="7886700"/>
-          <a:ext cx="266700" cy="257175"/>
+          <a:off x="10153650" y="8436431"/>
+          <a:ext cx="274864" cy="262618"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2617,8 +2919,8 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>31299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
@@ -2636,8 +2938,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4076700" y="8143875"/>
-          <a:ext cx="9525" cy="2124075"/>
+          <a:off x="10281557" y="8699049"/>
+          <a:ext cx="9525" cy="2420708"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2923,15 +3225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>180018</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>48063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>957</xdr:colOff>
+      <xdr:colOff>182904</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>169732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>202178</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>66237</xdr:rowOff>
+      <xdr:rowOff>67034</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2943,8 +3245,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4180518" y="8106213"/>
-          <a:ext cx="821064" cy="1561224"/>
+          <a:off x="10388261" y="8660589"/>
+          <a:ext cx="835703" cy="1843124"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3305,8 +3607,8 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
@@ -3324,8 +3626,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4219575" y="8015288"/>
-          <a:ext cx="2752725" cy="295275"/>
+          <a:off x="10428514" y="8567740"/>
+          <a:ext cx="2805793" cy="534759"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6321,140 +6623,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="正方形/長方形 157"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="7096125"/>
-          <a:ext cx="914400" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>master</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31379</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>64431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>108696</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="正方形/長方形 158"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1645026" y="7460313"/>
-          <a:ext cx="921122" cy="212354"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>develop</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -6463,8 +6631,8 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6473,15 +6641,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6105527" y="2181225"/>
-          <a:ext cx="0" cy="12611100"/>
+          <a:off x="8881384" y="2600325"/>
+          <a:ext cx="0" cy="14803211"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -6501,140 +6669,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181350" y="7096125"/>
-          <a:ext cx="914400" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>master</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>124946</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>53226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>97491</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5772711" y="7449108"/>
-          <a:ext cx="922803" cy="212354"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>develop</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6867,6 +6901,1635 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>リモートリポジトリ</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65154</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>100385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>188419</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>21943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4147297" y="16905206"/>
+          <a:ext cx="939693" cy="275344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>push</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58271</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>69483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>181536</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>159130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="正方形/長方形 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092389" y="14188895"/>
+          <a:ext cx="930088" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pull</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27376</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>78611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>153041</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>168258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="正方形/長方形 156"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1864340" y="14937611"/>
+          <a:ext cx="942094" cy="266540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172576</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85168</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>115428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2825969" y="7854449"/>
+          <a:ext cx="933128" cy="221158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>develop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>187696</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>48751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>101970</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7045696" y="7444633"/>
+          <a:ext cx="922803" cy="212354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>develop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49307</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163607</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>89097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="865736" y="7834283"/>
+          <a:ext cx="930728" cy="214993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>165292</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>39791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>79568</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>77891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5409645" y="7435673"/>
+          <a:ext cx="922805" cy="206189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>120063</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>86524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>188419</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>172249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="円/楕円 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467920" y="14945524"/>
+          <a:ext cx="272463" cy="262618"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95570</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>75641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163926</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="円/楕円 188"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3157177" y="14934641"/>
+          <a:ext cx="272463" cy="262618"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166327</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>78364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30576</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>164089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="円/楕円 189"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186863" y="16883185"/>
+          <a:ext cx="272463" cy="262618"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101013</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>112376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>169369</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>30733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="円/楕円 190"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5816013" y="16917197"/>
+          <a:ext cx="272463" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40661</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>21463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163926</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>119914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857090" y="18064534"/>
+          <a:ext cx="939693" cy="275344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本番リリース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98452</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>164089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>102294</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>21463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直線矢印コネクタ 193"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="190" idx="4"/>
+          <a:endCxn id="193" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323095" y="17145803"/>
+          <a:ext cx="3842" cy="918731"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33298</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>62715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>103735</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直線矢印コネクタ 194"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="197" idx="6"/>
+          <a:endCxn id="198" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1462048" y="8553572"/>
+          <a:ext cx="4356687" cy="38775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67876</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>191141</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>51878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4150019" y="8444284"/>
+          <a:ext cx="939693" cy="275344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>push</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169049</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33298</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="円/楕円 196"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1189585" y="8422263"/>
+          <a:ext cx="272463" cy="262618"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>103735</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>172091</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>60668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="円/楕円 197"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5818735" y="8456275"/>
+          <a:ext cx="272463" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158484</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>133674</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76997</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直線矢印コネクタ 203"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="206" idx="6"/>
+          <a:endCxn id="207" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3424198" y="9059758"/>
+          <a:ext cx="4057333" cy="38775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>84209</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>105827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3366</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>27385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="正方形/長方形 204"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4166352" y="8950470"/>
+          <a:ext cx="939693" cy="275344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>push</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90128</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158484</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>169531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="円/楕円 205"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3151735" y="8928449"/>
+          <a:ext cx="272463" cy="262618"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>133674</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>117818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>202030</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>36175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="円/楕円 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7481531" y="8962461"/>
+          <a:ext cx="272463" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>153041</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>30057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95570</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>34988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="直線矢印コネクタ 207"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="189" idx="2"/>
+          <a:endCxn id="157" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2806434" y="15065950"/>
+          <a:ext cx="350743" cy="4931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90208</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>69483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>119904</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>78611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="カギ線コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="157" idx="0"/>
+          <a:endCxn id="134" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3468260" y="13795610"/>
+          <a:ext cx="9128" cy="2274874"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5138574"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30098</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>167057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>155763</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>89337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1867062" y="14318486"/>
+          <a:ext cx="942094" cy="276065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>修正依頼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98452</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>168258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90208</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>78364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="カギ線コネクタ 210"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="157" idx="2"/>
+          <a:endCxn id="190" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="989724" y="15537522"/>
+          <a:ext cx="1679034" cy="1012292"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162324</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>153529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83883</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1795181" y="15896993"/>
+          <a:ext cx="942095" cy="266540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>merge</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8780,8 +10443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A23:AW29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF46" sqref="AF46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ96" sqref="AJ96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
